--- a/primerdata_allspecies_outliersremoved.xlsx
+++ b/primerdata_allspecies_outliersremoved.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015ACB2A-EDE3-4A63-8227-75DE61A64ED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7379EC-40B6-465F-8AF4-984D3160F289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK32" workbookViewId="0">
-      <selection activeCell="DF52" sqref="DF52"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="DK2" sqref="DK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19536,7 +19536,7 @@
         <v>117</v>
       </c>
       <c r="DF52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="DG52" t="s">
         <v>117</v>
